--- a/medicine/Pharmacie/Fédération_européenne_des_associations_et_industries_pharmaceutiques/Fédération_européenne_des_associations_et_industries_pharmaceutiques.xlsx
+++ b/medicine/Pharmacie/Fédération_européenne_des_associations_et_industries_pharmaceutiques/Fédération_européenne_des_associations_et_industries_pharmaceutiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_europ%C3%A9enne_des_associations_et_industries_pharmaceutiques</t>
+          <t>Fédération_européenne_des_associations_et_industries_pharmaceutiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 1978 et basée à Bruxelles, la Fédération européenne des associations et industries pharmaceutiques (en anglais European Federation of Pharmaceutical Industries and Associations, abrégée en EFPIA) est une organisation professionnelle représentant les associations nationales et compagnies pharmaceutiques en Europe[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1978 et basée à Bruxelles, la Fédération européenne des associations et industries pharmaceutiques (en anglais European Federation of Pharmaceutical Industries and Associations, abrégée en EFPIA) est une organisation professionnelle représentant les associations nationales et compagnies pharmaceutiques en Europe.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_europ%C3%A9enne_des_associations_et_industries_pharmaceutiques</t>
+          <t>Fédération_européenne_des_associations_et_industries_pharmaceutiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'EFPIA a été fondée en 1978.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_europ%C3%A9enne_des_associations_et_industries_pharmaceutiques</t>
+          <t>Fédération_européenne_des_associations_et_industries_pharmaceutiques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,17 @@
           <t>Gouvernance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le président est élu pour un mandat de deux ans.
-2001 : Jean-François Dehecq[2].
-2008 : Arthur Higgins[3].
-2013 : Christopher Viehbacher[4].
-2014 : Joe Jimenez[5].
-2019 : Jean-Christophe Tellier[6].
-2021 : Hubertus von Baumbach[7]</t>
+2001 : Jean-François Dehecq.
+2008 : Arthur Higgins.
+2013 : Christopher Viehbacher.
+2014 : Joe Jimenez.
+2019 : Jean-Christophe Tellier.
+2021 : Hubertus von Baumbach</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_europ%C3%A9enne_des_associations_et_industries_pharmaceutiques</t>
+          <t>Fédération_européenne_des_associations_et_industries_pharmaceutiques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,15 +594,17 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La EFPIA représente l'industrie pharmaceutique en Europe à travers l’adhésion directe de 33 associations nationales et de 40 entreprises pharmaceutiques[8].
-Son directeur général de 2011 à 2016 était Richard Bergström[9],[10].
-Elle dispose de vingt-trois employés et de huit accréditations auprès de l'Union Européenne, qui fournissent aux législateurs leur expertise sur des questions politiques[11]. Son budget de lobbying pour 2019 s'élève, selon les sources, entre 4 651 809[12] et 5 414 776 euros[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La EFPIA représente l'industrie pharmaceutique en Europe à travers l’adhésion directe de 33 associations nationales et de 40 entreprises pharmaceutiques.
+Son directeur général de 2011 à 2016 était Richard Bergström,.
+Elle dispose de vingt-trois employés et de huit accréditations auprès de l'Union Européenne, qui fournissent aux législateurs leur expertise sur des questions politiques. Son budget de lobbying pour 2019 s'élève, selon les sources, entre 4 651 809 et 5 414 776 euros.
 Elle comprend des groupes d’intérêt spécialisés :
-Vaccines Europe est, au sein de la EFPIA, un regroupement de compagnies créant et distribuant des vaccins[14], dont CureVac, GlaxoSmithKline[15], Sanofi et AstraZeneca[16].
-European Biopharmaceutical Enterprises (EBE), orientée vers le secteur des biotechnologies en Europe[17].
-L'influence que la Fédération exerce au sein de l'Union Européenne a amené certains députés européens à soulever la question d'un lobbying excessif[18],[19]. Notamment, la EFPIA a poussé l'UE à obtenir des exemptions qui protégeraient ses membres des poursuites en cas de problèmes avec de nouveaux vaccins contre le coronavirus[20],[21],[15].
+Vaccines Europe est, au sein de la EFPIA, un regroupement de compagnies créant et distribuant des vaccins, dont CureVac, GlaxoSmithKline, Sanofi et AstraZeneca.
+European Biopharmaceutical Enterprises (EBE), orientée vers le secteur des biotechnologies en Europe.
+L'influence que la Fédération exerce au sein de l'Union Européenne a amené certains députés européens à soulever la question d'un lobbying excessif,. Notamment, la EFPIA a poussé l'UE à obtenir des exemptions qui protégeraient ses membres des poursuites en cas de problèmes avec de nouveaux vaccins contre le coronavirus.
 </t>
         </is>
       </c>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_europ%C3%A9enne_des_associations_et_industries_pharmaceutiques</t>
+          <t>Fédération_européenne_des_associations_et_industries_pharmaceutiques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,9 +633,11 @@
           <t>Membres associés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les membres de la EFPIA sont[22] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les membres de la EFPIA sont :
 Allemagne : Verband Forschender Arzneitmittelhersteller (VfA)
 Autriche : Fachverband der Chemischen Industrie Österreichs (FCIO)
 Belgique : Association Générale de l'Industrie du Médicament (pharma.be)
